--- a/项目三温湿度采集/Wen.THproject/Wen.THproject/bin/Debug/Variable/variable.xlsx
+++ b/项目三温湿度采集/Wen.THproject/Wen.THproject/bin/Debug/Variable/variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\备份\C#项目\项目三温湿度采集\Wen.THproject\Wen.THproject\bin\Debug\Variable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F14ED2E-ED82-4AEF-99ED-370635224633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E608700C-5BA5-4041-9ABA-B0113095A777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44:I67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J46" s="2">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J49" s="2">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J51" s="2">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J52" s="2">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J54" s="2">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J55" s="2">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J58" s="2">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J61" s="2">
         <v>0</v>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J64" s="2">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J65" s="2">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J66" s="2">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J67" s="2">
         <v>0</v>
